--- a/Students&Preferences(60).xlsx
+++ b/Students&Preferences(60).xlsx
@@ -26,190 +26,190 @@
     <t>Preferences</t>
   </si>
   <si>
-    <t>Anthony Power</t>
+    <t>Keenan Clarke</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Zak O'Leary</t>
-  </si>
-  <si>
-    <t>Cameron Lynch</t>
-  </si>
-  <si>
-    <t>John Cunningham</t>
-  </si>
-  <si>
-    <t>Reece Barry</t>
-  </si>
-  <si>
-    <t>Ruairi Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Muhammad Brady</t>
-  </si>
-  <si>
-    <t>Kian Mullan</t>
-  </si>
-  <si>
-    <t>Jacques O'Farrell</t>
-  </si>
-  <si>
-    <t>Brian Foley</t>
-  </si>
-  <si>
-    <t>Kealan Flynn</t>
-  </si>
-  <si>
-    <t>Graeme O'Connor</t>
-  </si>
-  <si>
-    <t>Oran McGrath</t>
-  </si>
-  <si>
-    <t>Eric Regan</t>
-  </si>
-  <si>
-    <t>Donagh Duffy</t>
-  </si>
-  <si>
-    <t>Aaron Ryan</t>
-  </si>
-  <si>
-    <t>Gavin Martin</t>
-  </si>
-  <si>
-    <t>Rian Power</t>
-  </si>
-  <si>
-    <t>Marc O'Dwyer</t>
-  </si>
-  <si>
-    <t>Ryan Sweeney</t>
-  </si>
-  <si>
-    <t>Cody Bell</t>
-  </si>
-  <si>
-    <t>Cameron Flynn</t>
-  </si>
-  <si>
-    <t>Reuben Griffin</t>
-  </si>
-  <si>
-    <t>Craig O'Brien</t>
-  </si>
-  <si>
-    <t>Aron O'Doherty</t>
-  </si>
-  <si>
-    <t>Darrell Quinn</t>
-  </si>
-  <si>
-    <t>Owen O'Connor</t>
-  </si>
-  <si>
-    <t>Raymond Collins</t>
+    <t>Conrad O'Farrell</t>
+  </si>
+  <si>
+    <t>Raymond O'Callaghan</t>
+  </si>
+  <si>
+    <t>Larry McGrath</t>
+  </si>
+  <si>
+    <t>Dillon O'Callaghan</t>
+  </si>
+  <si>
+    <t>Benedict O'Connor</t>
+  </si>
+  <si>
+    <t>Gavan Sheehan</t>
+  </si>
+  <si>
+    <t>Deane Reid</t>
+  </si>
+  <si>
+    <t>Eoin O'Rourke</t>
+  </si>
+  <si>
+    <t>Albert O'Sullivan</t>
+  </si>
+  <si>
+    <t>Eimhin Kennedy</t>
+  </si>
+  <si>
+    <t>George O'Reilly</t>
+  </si>
+  <si>
+    <t>Kyran White</t>
   </si>
   <si>
     <t>Johnny Quinn</t>
   </si>
   <si>
-    <t>George MacDonald</t>
-  </si>
-  <si>
-    <t>Daire MacDonald</t>
-  </si>
-  <si>
-    <t>Henry Griffin</t>
-  </si>
-  <si>
-    <t>Khalid McLoughlin</t>
-  </si>
-  <si>
-    <t>Aidan Ryan</t>
-  </si>
-  <si>
-    <t>Charles O'Neill</t>
-  </si>
-  <si>
-    <t>Maximillian Wilson</t>
-  </si>
-  <si>
-    <t>Deaglan O'Connell</t>
+    <t>Tiernan Reid</t>
+  </si>
+  <si>
+    <t>Rowan Donovan</t>
+  </si>
+  <si>
+    <t>William Kenny</t>
+  </si>
+  <si>
+    <t>Oran Stewart</t>
+  </si>
+  <si>
+    <t>Andre Kennedy</t>
+  </si>
+  <si>
+    <t>Feargal Griffin</t>
+  </si>
+  <si>
+    <t>Marc O'Donnell</t>
+  </si>
+  <si>
+    <t>Tyrone Nolan</t>
+  </si>
+  <si>
+    <t>Aran O'Callaghan</t>
+  </si>
+  <si>
+    <t>Brain White</t>
+  </si>
+  <si>
+    <t>Casey Lynch</t>
+  </si>
+  <si>
+    <t>Tyler Brown</t>
+  </si>
+  <si>
+    <t>Jason Walsh</t>
+  </si>
+  <si>
+    <t>Ultan O'Callaghan</t>
+  </si>
+  <si>
+    <t>Conan Regan</t>
+  </si>
+  <si>
+    <t>Hugo Fitzgerald</t>
+  </si>
+  <si>
+    <t>Eamonn MacNamara</t>
+  </si>
+  <si>
+    <t>Leo Byrne</t>
+  </si>
+  <si>
+    <t>Zack O'Leary</t>
+  </si>
+  <si>
+    <t>Kieran Stewart</t>
+  </si>
+  <si>
+    <t>Jonathon Sweeney</t>
+  </si>
+  <si>
+    <t>Padhraic Smith</t>
+  </si>
+  <si>
+    <t>Caleb O'Keeffe</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Hugh Campbell</t>
-  </si>
-  <si>
-    <t>Zach Murray</t>
-  </si>
-  <si>
-    <t>Dean King</t>
-  </si>
-  <si>
-    <t>Casey Stewart</t>
-  </si>
-  <si>
-    <t>Graeme Ryan</t>
-  </si>
-  <si>
-    <t>Anthony Healy</t>
-  </si>
-  <si>
-    <t>James Kenny</t>
-  </si>
-  <si>
-    <t>Kenneth Ryan</t>
-  </si>
-  <si>
-    <t>Dane Kavanagh</t>
-  </si>
-  <si>
-    <t>Garry Mullan</t>
-  </si>
-  <si>
-    <t>Tomas Power</t>
-  </si>
-  <si>
-    <t>Jesse MacNamara</t>
-  </si>
-  <si>
-    <t>Jay Stewart</t>
-  </si>
-  <si>
-    <t>Dominic Wilson</t>
-  </si>
-  <si>
-    <t>Mathew Cullen</t>
-  </si>
-  <si>
-    <t>Troy O'Neill</t>
-  </si>
-  <si>
-    <t>Aron Burke</t>
-  </si>
-  <si>
-    <t>Charlie Thompson</t>
-  </si>
-  <si>
-    <t>Johnathan Murray</t>
-  </si>
-  <si>
-    <t>Karl Hayes</t>
-  </si>
-  <si>
-    <t>Finbarr Collins</t>
-  </si>
-  <si>
-    <t>Niall Moore</t>
-  </si>
-  <si>
-    <t>Seamus Cullen</t>
+    <t>Euan O'Leary</t>
+  </si>
+  <si>
+    <t>George Burns</t>
+  </si>
+  <si>
+    <t>Noel Brady</t>
+  </si>
+  <si>
+    <t>Kelan Burns</t>
+  </si>
+  <si>
+    <t>Johnathan Byrne</t>
+  </si>
+  <si>
+    <t>Emmanuel Maguire</t>
+  </si>
+  <si>
+    <t>Kelvin Kane</t>
+  </si>
+  <si>
+    <t>Clive Murray</t>
+  </si>
+  <si>
+    <t>Damien Murray</t>
+  </si>
+  <si>
+    <t>Eamon Moore</t>
+  </si>
+  <si>
+    <t>Clayton Daly</t>
+  </si>
+  <si>
+    <t>Feargal MacDermott</t>
+  </si>
+  <si>
+    <t>Evan O'Callaghan</t>
+  </si>
+  <si>
+    <t>Rory Maher</t>
+  </si>
+  <si>
+    <t>Harry Foley</t>
+  </si>
+  <si>
+    <t>Darren O'Sullivan</t>
+  </si>
+  <si>
+    <t>Bernard Hayes</t>
+  </si>
+  <si>
+    <t>Louis White</t>
+  </si>
+  <si>
+    <t>Greg Flanagan</t>
+  </si>
+  <si>
+    <t>Finnan Reid</t>
+  </si>
+  <si>
+    <t>Samuel Thompson</t>
+  </si>
+  <si>
+    <t>Darragh Stewart</t>
+  </si>
+  <si>
+    <t>Mairtin Nolan</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.32421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.89453125" customWidth="true" bestFit="true"/>
@@ -291,7 +291,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>769729.0</v>
+        <v>943163.0</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>116396.0</v>
+        <v>215954.0</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -313,7 +313,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>371242.0</v>
+        <v>483586.0</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -324,7 +324,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>337655.0</v>
+        <v>162616.0</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -335,7 +335,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>169713.0</v>
+        <v>413535.0</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -346,7 +346,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>249438.0</v>
+        <v>216821.0</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -357,7 +357,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>491733.0</v>
+        <v>242317.0</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -368,7 +368,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>427219.0</v>
+        <v>782668.0</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -379,7 +379,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>313657.0</v>
+        <v>639215.0</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -390,7 +390,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>678827.0</v>
+        <v>711912.0</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -401,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>348255.0</v>
+        <v>897165.0</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -412,7 +412,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>926392.0</v>
+        <v>967415.0</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -423,7 +423,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>144877.0</v>
+        <v>864957.0</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -434,7 +434,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>769248.0</v>
+        <v>318243.0</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -445,7 +445,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>732569.0</v>
+        <v>334652.0</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -456,7 +456,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>523628.0</v>
+        <v>411926.0</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>736359.0</v>
+        <v>164239.0</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -478,7 +478,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>615325.0</v>
+        <v>985242.0</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -489,7 +489,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>525891.0</v>
+        <v>332325.0</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -500,7 +500,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>116291.0</v>
+        <v>618255.0</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>198719.0</v>
+        <v>846263.0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -522,7 +522,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>538311.0</v>
+        <v>217494.0</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>854989.0</v>
+        <v>275951.0</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -544,7 +544,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>393244.0</v>
+        <v>394631.0</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -555,7 +555,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>968918.0</v>
+        <v>218418.0</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>323915.0</v>
+        <v>494149.0</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>466394.0</v>
+        <v>385338.0</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -588,7 +588,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>817555.0</v>
+        <v>182343.0</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>916262.0</v>
+        <v>323432.0</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -610,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>318627.0</v>
+        <v>157144.0</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -621,7 +621,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>318626.0</v>
+        <v>841774.0</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>425173.0</v>
+        <v>582614.0</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -643,7 +643,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>684936.0</v>
+        <v>112379.0</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>245216.0</v>
+        <v>446258.0</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -665,7 +665,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>223786.0</v>
+        <v>494649.0</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>128296.0</v>
+        <v>153199.0</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>865694.0</v>
+        <v>431754.0</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -698,7 +698,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>182388.0</v>
+        <v>435261.0</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -709,7 +709,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>895845.0</v>
+        <v>433533.0</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -720,7 +720,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>273753.0</v>
+        <v>242413.0</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>192878.0</v>
+        <v>314467.0</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -742,7 +742,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>267792.0</v>
+        <v>278833.0</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -753,7 +753,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>495729.0</v>
+        <v>518575.0</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
@@ -764,7 +764,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>818122.0</v>
+        <v>335635.0</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -775,7 +775,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>912714.0</v>
+        <v>892753.0</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -786,7 +786,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>183485.0</v>
+        <v>547634.0</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -797,7 +797,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>377141.0</v>
+        <v>911749.0</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>538317.0</v>
+        <v>217149.0</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -819,7 +819,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>256322.0</v>
+        <v>139559.0</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>937419.0</v>
+        <v>729126.0</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>385663.0</v>
+        <v>339635.0</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -852,7 +852,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>141764.0</v>
+        <v>738232.0</v>
       </c>
       <c r="C53" t="s">
         <v>42</v>
@@ -863,7 +863,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>589139.0</v>
+        <v>845522.0</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -874,7 +874,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>552298.0</v>
+        <v>233691.0</v>
       </c>
       <c r="C55" t="s">
         <v>42</v>
@@ -885,7 +885,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>911216.0</v>
+        <v>585966.0</v>
       </c>
       <c r="C56" t="s">
         <v>42</v>
@@ -896,7 +896,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>246149.0</v>
+        <v>419246.0</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -907,7 +907,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>624592.0</v>
+        <v>142247.0</v>
       </c>
       <c r="C58" t="s">
         <v>42</v>
@@ -918,7 +918,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>327215.0</v>
+        <v>277775.0</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>348153.0</v>
+        <v>134182.0</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
@@ -940,7 +940,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>965225.0</v>
+        <v>795535.0</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>

--- a/Students&Preferences(60).xlsx
+++ b/Students&Preferences(60).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -23,193 +23,328 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Preferences</t>
-  </si>
-  <si>
-    <t>Keenan Clarke</t>
+    <t>Preference 1</t>
+  </si>
+  <si>
+    <t>Preference 2</t>
+  </si>
+  <si>
+    <t>Preference 3</t>
+  </si>
+  <si>
+    <t>Preference 4</t>
+  </si>
+  <si>
+    <t>Preference 5</t>
+  </si>
+  <si>
+    <t>Preference 6</t>
+  </si>
+  <si>
+    <t>Preference 7</t>
+  </si>
+  <si>
+    <t>Preference 8</t>
+  </si>
+  <si>
+    <t>Preference 9</t>
+  </si>
+  <si>
+    <t>Preference 10</t>
+  </si>
+  <si>
+    <t>Keith Hughes</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Conrad O'Farrell</t>
-  </si>
-  <si>
-    <t>Raymond O'Callaghan</t>
-  </si>
-  <si>
-    <t>Larry McGrath</t>
-  </si>
-  <si>
-    <t>Dillon O'Callaghan</t>
-  </si>
-  <si>
-    <t>Benedict O'Connor</t>
-  </si>
-  <si>
-    <t>Gavan Sheehan</t>
-  </si>
-  <si>
-    <t>Deane Reid</t>
-  </si>
-  <si>
-    <t>Eoin O'Rourke</t>
-  </si>
-  <si>
-    <t>Albert O'Sullivan</t>
-  </si>
-  <si>
-    <t>Eimhin Kennedy</t>
-  </si>
-  <si>
-    <t>George O'Reilly</t>
-  </si>
-  <si>
-    <t>Kyran White</t>
-  </si>
-  <si>
-    <t>Johnny Quinn</t>
-  </si>
-  <si>
-    <t>Tiernan Reid</t>
-  </si>
-  <si>
-    <t>Rowan Donovan</t>
-  </si>
-  <si>
-    <t>William Kenny</t>
-  </si>
-  <si>
-    <t>Oran Stewart</t>
-  </si>
-  <si>
-    <t>Andre Kennedy</t>
-  </si>
-  <si>
-    <t>Feargal Griffin</t>
-  </si>
-  <si>
-    <t>Marc O'Donnell</t>
-  </si>
-  <si>
-    <t>Tyrone Nolan</t>
-  </si>
-  <si>
-    <t>Aran O'Callaghan</t>
-  </si>
-  <si>
-    <t>Brain White</t>
-  </si>
-  <si>
-    <t>Casey Lynch</t>
-  </si>
-  <si>
-    <t>Tyler Brown</t>
-  </si>
-  <si>
-    <t>Jason Walsh</t>
-  </si>
-  <si>
-    <t>Ultan O'Callaghan</t>
-  </si>
-  <si>
-    <t>Conan Regan</t>
-  </si>
-  <si>
-    <t>Hugo Fitzgerald</t>
-  </si>
-  <si>
-    <t>Eamonn MacNamara</t>
-  </si>
-  <si>
-    <t>Leo Byrne</t>
-  </si>
-  <si>
-    <t>Zack O'Leary</t>
-  </si>
-  <si>
-    <t>Kieran Stewart</t>
-  </si>
-  <si>
-    <t>Jonathon Sweeney</t>
-  </si>
-  <si>
-    <t>Padhraic Smith</t>
-  </si>
-  <si>
-    <t>Caleb O'Keeffe</t>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>complaining about life</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Abstract views on complaining about life</t>
+  </si>
+  <si>
+    <t>running a technology company</t>
+  </si>
+  <si>
+    <t>Emmanuel Donovan</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Abstract views on making bizarre movies,</t>
+  </si>
+  <si>
+    <t>running Ponzi schemes</t>
+  </si>
+  <si>
+    <t>Conal O'Keeffe</t>
+  </si>
+  <si>
+    <t>making bizarre movies,</t>
+  </si>
+  <si>
+    <t>designing haute couture</t>
+  </si>
+  <si>
+    <t>Abstract views on campaigning for democracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developing new technologies </t>
+  </si>
+  <si>
+    <t>Fergal Ryan</t>
+  </si>
+  <si>
+    <t>writing pot-boilers</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Barry Kenny</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Caleb O'Shea</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>Emanuel Hogan</t>
+  </si>
+  <si>
+    <t>Abstract views on coining sententious maxims</t>
+  </si>
+  <si>
+    <t>Abstract views on shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>making vulgar jokes,</t>
+  </si>
+  <si>
+    <t>Timothy Griffin</t>
+  </si>
+  <si>
+    <t>Jacques Smith</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
+  </si>
+  <si>
+    <t>running pyramid schemes</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>Julius Fitzgerald</t>
+  </si>
+  <si>
+    <t>running a software company</t>
+  </si>
+  <si>
+    <t>Adam O'Rourke</t>
+  </si>
+  <si>
+    <t>Frederick Hogan</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>Ros O'Callaghan</t>
+  </si>
+  <si>
+    <t>Turlough Barry</t>
+  </si>
+  <si>
+    <t>Antonio Griffin</t>
+  </si>
+  <si>
+    <t>Micheal Hogan</t>
+  </si>
+  <si>
+    <t>Stuart O'Leary</t>
+  </si>
+  <si>
+    <t>Marc Nolan</t>
+  </si>
+  <si>
+    <t>Olin O'Reilly</t>
+  </si>
+  <si>
+    <t>Chris MacDermott</t>
+  </si>
+  <si>
+    <t>Conal Burns</t>
+  </si>
+  <si>
+    <t>Alan Hogan</t>
+  </si>
+  <si>
+    <t>Bobby Daly</t>
+  </si>
+  <si>
+    <t>John Cunningham</t>
+  </si>
+  <si>
+    <t>Levi O'Shea</t>
+  </si>
+  <si>
+    <t>Olan Kelly</t>
+  </si>
+  <si>
+    <t>Karl Cullen</t>
+  </si>
+  <si>
+    <t>Aron Buckley</t>
+  </si>
+  <si>
+    <t>Oisin O'Dwyer</t>
+  </si>
+  <si>
+    <t>Kaylem Kenny</t>
+  </si>
+  <si>
+    <t>Rian Donovan</t>
+  </si>
+  <si>
+    <t>Desmond MacDonald</t>
+  </si>
+  <si>
+    <t>Aran Murray</t>
+  </si>
+  <si>
+    <t>Conn Barry</t>
+  </si>
+  <si>
+    <t>Devon O'Doherty</t>
+  </si>
+  <si>
+    <t>Raphael Fitzgerald</t>
+  </si>
+  <si>
+    <t>Brain Healy</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Euan O'Leary</t>
-  </si>
-  <si>
-    <t>George Burns</t>
-  </si>
-  <si>
-    <t>Noel Brady</t>
-  </si>
-  <si>
-    <t>Kelan Burns</t>
-  </si>
-  <si>
-    <t>Johnathan Byrne</t>
-  </si>
-  <si>
-    <t>Emmanuel Maguire</t>
-  </si>
-  <si>
-    <t>Kelvin Kane</t>
-  </si>
-  <si>
-    <t>Clive Murray</t>
-  </si>
-  <si>
-    <t>Damien Murray</t>
-  </si>
-  <si>
-    <t>Eamon Moore</t>
-  </si>
-  <si>
-    <t>Clayton Daly</t>
-  </si>
-  <si>
-    <t>Feargal MacDermott</t>
-  </si>
-  <si>
-    <t>Evan O'Callaghan</t>
-  </si>
-  <si>
-    <t>Rory Maher</t>
-  </si>
-  <si>
-    <t>Harry Foley</t>
-  </si>
-  <si>
-    <t>Darren O'Sullivan</t>
-  </si>
-  <si>
-    <t>Bernard Hayes</t>
-  </si>
-  <si>
-    <t>Louis White</t>
-  </si>
-  <si>
-    <t>Greg Flanagan</t>
-  </si>
-  <si>
-    <t>Finnan Reid</t>
-  </si>
-  <si>
-    <t>Samuel Thompson</t>
-  </si>
-  <si>
-    <t>Darragh Stewart</t>
-  </si>
-  <si>
-    <t>Mairtin Nolan</t>
+    <t>Wesley O'Sullivan</t>
+  </si>
+  <si>
+    <t>Calem Flanagan</t>
+  </si>
+  <si>
+    <t>Conor MacNamara</t>
+  </si>
+  <si>
+    <t>Jim Power</t>
+  </si>
+  <si>
+    <t>Bobby Flanagan</t>
+  </si>
+  <si>
+    <t>Tiernan Johnston</t>
+  </si>
+  <si>
+    <t>Dillon McLoughlin</t>
+  </si>
+  <si>
+    <t>Derek Kane</t>
+  </si>
+  <si>
+    <t>Tim Kavanagh</t>
+  </si>
+  <si>
+    <t>Brain Brown</t>
+  </si>
+  <si>
+    <t>Liam O'Doherty</t>
+  </si>
+  <si>
+    <t>William Robinson</t>
+  </si>
+  <si>
+    <t>Jamie O'Rourke</t>
+  </si>
+  <si>
+    <t>Myles Daly</t>
+  </si>
+  <si>
+    <t>Ralph O'Neill</t>
+  </si>
+  <si>
+    <t>Leroy Lynch</t>
+  </si>
+  <si>
+    <t>Paul MacMahon</t>
+  </si>
+  <si>
+    <t>Derek O'Donnell</t>
+  </si>
+  <si>
+    <t>Neil Stewart</t>
+  </si>
+  <si>
+    <t>Darragh MacDonald</t>
+  </si>
+  <si>
+    <t>Joe MacDermott</t>
+  </si>
+  <si>
+    <t>Cory Donovan</t>
+  </si>
+  <si>
+    <t>Niall Donnelly</t>
   </si>
 </sst>
 </file>
@@ -260,16 +395,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.89453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="42.23046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="44.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -285,665 +429,2492 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>943163.0</v>
+        <v>351477.0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>215954.0</v>
+        <v>217431.0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>483586.0</v>
+        <v>281437.0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>162616.0</v>
+        <v>544121.0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B6" t="n">
-        <v>413535.0</v>
+        <v>786829.0</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B7" t="n">
-        <v>216821.0</v>
+        <v>726454.0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n">
-        <v>242317.0</v>
+        <v>883225.0</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B9" t="n">
-        <v>782668.0</v>
+        <v>962675.0</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B10" t="n">
-        <v>639215.0</v>
+        <v>425451.0</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B11" t="n">
-        <v>711912.0</v>
+        <v>219163.0</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B12" t="n">
-        <v>897165.0</v>
+        <v>193528.0</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>967415.0</v>
+        <v>386575.0</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n">
-        <v>864957.0</v>
+        <v>787228.0</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="n">
+        <v>648181.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="n">
-        <v>318243.0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n">
-        <v>334652.0</v>
+        <v>719936.0</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="n">
+        <v>843243.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="n">
-        <v>411926.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="n">
+        <v>565599.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="n">
-        <v>164239.0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="n">
+        <v>329436.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="n">
-        <v>985242.0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B20" t="n">
-        <v>332325.0</v>
+        <v>554216.0</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n">
-        <v>618255.0</v>
+        <v>942294.0</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n">
-        <v>846263.0</v>
+        <v>931121.0</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n">
-        <v>217494.0</v>
+        <v>941439.0</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="n">
+        <v>945872.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>275951.0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n">
-        <v>394631.0</v>
+        <v>523678.0</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B26" t="n">
-        <v>218418.0</v>
+        <v>473591.0</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n">
-        <v>494149.0</v>
+        <v>839183.0</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B28" t="n">
-        <v>385338.0</v>
+        <v>457658.0</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B29" t="n">
-        <v>182343.0</v>
+        <v>288545.0</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B30" t="n">
-        <v>323432.0</v>
+        <v>877844.0</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144281.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="n">
-        <v>157144.0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n">
-        <v>841774.0</v>
+        <v>458214.0</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="n">
+        <v>876685.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="n">
-        <v>582614.0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B34" t="n">
-        <v>112379.0</v>
+        <v>448884.0</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B35" t="n">
-        <v>446258.0</v>
+        <v>761584.0</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="n">
+        <v>176641.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="n">
-        <v>494649.0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
+      <c r="I36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B37" t="n">
-        <v>153199.0</v>
+        <v>871862.0</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n">
-        <v>431754.0</v>
+        <v>123882.0</v>
       </c>
       <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
         <v>42</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="n">
+        <v>936718.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
-        <v>435261.0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B40" t="n">
-        <v>433533.0</v>
+        <v>753279.0</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B41" t="n">
-        <v>242413.0</v>
+        <v>432255.0</v>
       </c>
       <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
         <v>42</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B42" t="n">
-        <v>314467.0</v>
+        <v>555695.0</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="n">
+        <v>851278.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
         <v>47</v>
-      </c>
-      <c r="B43" t="n">
-        <v>278833.0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B44" t="n">
-        <v>518575.0</v>
+        <v>331789.0</v>
       </c>
       <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" t="s">
         <v>42</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>335635.0</v>
+        <v>717985.0</v>
       </c>
       <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B46" t="n">
-        <v>892753.0</v>
+        <v>132377.0</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B47" t="n">
-        <v>547634.0</v>
+        <v>432624.0</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
-        <v>911749.0</v>
+        <v>346879.0</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
-        <v>217149.0</v>
+        <v>631947.0</v>
       </c>
       <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B50" t="n">
-        <v>139559.0</v>
+        <v>823317.0</v>
       </c>
       <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
         <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>729126.0</v>
+        <v>455496.0</v>
       </c>
       <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
         <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B52" t="n">
-        <v>339635.0</v>
+        <v>712562.0</v>
       </c>
       <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B53" t="n">
-        <v>738232.0</v>
+        <v>871956.0</v>
       </c>
       <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
         <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" t="s">
+        <v>45</v>
+      </c>
+      <c r="M53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B54" t="n">
-        <v>845522.0</v>
+        <v>513182.0</v>
       </c>
       <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B55" t="n">
-        <v>233691.0</v>
+        <v>884271.0</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B56" t="n">
-        <v>585966.0</v>
+        <v>311619.0</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B57" t="n">
-        <v>419246.0</v>
+        <v>675989.0</v>
       </c>
       <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
         <v>42</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B58" t="n">
-        <v>142247.0</v>
+        <v>617855.0</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B59" t="n">
-        <v>277775.0</v>
+        <v>427853.0</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>134182.0</v>
+        <v>959768.0</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B61" t="n">
-        <v>795535.0</v>
+        <v>648372.0</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Students&Preferences(60).xlsx
+++ b/Students&Preferences(60).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -53,298 +53,283 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Keith Hughes</t>
+    <t>Conor Buckley</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>complaining about life</t>
+    <t>promoting democracy</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>eating exotic foods</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Abstract views on divorcing husbands</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>Abstract views on hunting aliens</t>
+  </si>
+  <si>
+    <t>Abstract views on studying mathematics</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Alexander Kelly</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>Abstract views on running a multinational corporation</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
   </si>
   <si>
     <t>writing pop songs</t>
   </si>
   <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Abstract views on complaining about life</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Emmanuel Donovan</t>
-  </si>
-  <si>
     <t>Abstract views on promoting conservative values</t>
   </si>
   <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Abstract views on making bizarre movies,</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>Conal O'Keeffe</t>
-  </si>
-  <si>
-    <t>making bizarre movies,</t>
-  </si>
-  <si>
-    <t>designing haute couture</t>
-  </si>
-  <si>
-    <t>Abstract views on campaigning for democracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">developing new technologies </t>
-  </si>
-  <si>
-    <t>Fergal Ryan</t>
-  </si>
-  <si>
-    <t>writing pot-boilers</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Barry Kenny</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Caleb O'Shea</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Emanuel Hogan</t>
-  </si>
-  <si>
-    <t>Abstract views on coining sententious maxims</t>
-  </si>
-  <si>
-    <t>Abstract views on shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>making vulgar jokes,</t>
-  </si>
-  <si>
-    <t>Timothy Griffin</t>
-  </si>
-  <si>
-    <t>Jacques Smith</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>Julius Fitzgerald</t>
-  </si>
-  <si>
-    <t>running a software company</t>
-  </si>
-  <si>
-    <t>Adam O'Rourke</t>
-  </si>
-  <si>
-    <t>Frederick Hogan</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>Ros O'Callaghan</t>
-  </si>
-  <si>
-    <t>Turlough Barry</t>
-  </si>
-  <si>
-    <t>Antonio Griffin</t>
-  </si>
-  <si>
-    <t>Micheal Hogan</t>
-  </si>
-  <si>
-    <t>Stuart O'Leary</t>
-  </si>
-  <si>
-    <t>Marc Nolan</t>
-  </si>
-  <si>
-    <t>Olin O'Reilly</t>
-  </si>
-  <si>
-    <t>Chris MacDermott</t>
-  </si>
-  <si>
-    <t>Conal Burns</t>
-  </si>
-  <si>
-    <t>Alan Hogan</t>
-  </si>
-  <si>
-    <t>Bobby Daly</t>
-  </si>
-  <si>
-    <t>John Cunningham</t>
-  </si>
-  <si>
-    <t>Levi O'Shea</t>
-  </si>
-  <si>
-    <t>Olan Kelly</t>
-  </si>
-  <si>
-    <t>Karl Cullen</t>
-  </si>
-  <si>
-    <t>Aron Buckley</t>
-  </si>
-  <si>
-    <t>Oisin O'Dwyer</t>
-  </si>
-  <si>
-    <t>Kaylem Kenny</t>
-  </si>
-  <si>
-    <t>Rian Donovan</t>
-  </si>
-  <si>
-    <t>Desmond MacDonald</t>
-  </si>
-  <si>
-    <t>Aran Murray</t>
-  </si>
-  <si>
-    <t>Conn Barry</t>
-  </si>
-  <si>
-    <t>Devon O'Doherty</t>
-  </si>
-  <si>
-    <t>Raphael Fitzgerald</t>
-  </si>
-  <si>
-    <t>Brain Healy</t>
+    <t>divorcing husbands</t>
+  </si>
+  <si>
+    <t>Benedict Burns</t>
+  </si>
+  <si>
+    <t>pushing shoddy merchandise</t>
+  </si>
+  <si>
+    <t>Shane Kavanagh</t>
+  </si>
+  <si>
+    <t>Abstract views on performing household chores</t>
+  </si>
+  <si>
+    <t>Abstract views on eating exotic foods</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>Abstract views on interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Jeffrey Thompson</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>eating the inedible,</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>Lucas Duffy</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Tiarnan Kane</t>
+  </si>
+  <si>
+    <t>Cian Healy</t>
+  </si>
+  <si>
+    <t>Patrick MacNamara</t>
+  </si>
+  <si>
+    <t>fighting against totalitarianism</t>
+  </si>
+  <si>
+    <t>Oscar Higgins</t>
+  </si>
+  <si>
+    <t>fussing about cleanliness</t>
+  </si>
+  <si>
+    <t>Terry Lyons</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Alex Gallagher</t>
+  </si>
+  <si>
+    <t>Cain Reid</t>
+  </si>
+  <si>
+    <t>Kevin Ward</t>
+  </si>
+  <si>
+    <t>Timmy Sweeney</t>
+  </si>
+  <si>
+    <t>Ned Hughes</t>
+  </si>
+  <si>
+    <t>Eric O'Doherty</t>
+  </si>
+  <si>
+    <t>Stuart O'Doherty</t>
+  </si>
+  <si>
+    <t>Nicholas Ryan</t>
+  </si>
+  <si>
+    <t>Elliot Quinn</t>
+  </si>
+  <si>
+    <t>Leonard Dunne</t>
+  </si>
+  <si>
+    <t>Garrett MacDonald</t>
+  </si>
+  <si>
+    <t>Francis Buckley</t>
+  </si>
+  <si>
+    <t>Cianan Graham</t>
+  </si>
+  <si>
+    <t>Tiarnan O'Reilly</t>
+  </si>
+  <si>
+    <t>Cianan McDonnell</t>
+  </si>
+  <si>
+    <t>Leigh Nolan</t>
+  </si>
+  <si>
+    <t>Padraig Buckley</t>
+  </si>
+  <si>
+    <t>Bryan Thompson</t>
+  </si>
+  <si>
+    <t>Laurence Flynn</t>
+  </si>
+  <si>
+    <t>Mark Kelly</t>
+  </si>
+  <si>
+    <t>Ted MacKenna</t>
+  </si>
+  <si>
+    <t>Tom Flanagan</t>
+  </si>
+  <si>
+    <t>Aiden Whelan</t>
+  </si>
+  <si>
+    <t>Albert Griffin</t>
+  </si>
+  <si>
+    <t>Imran Quinn</t>
+  </si>
+  <si>
+    <t>Troy MacDonald</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Wesley O'Sullivan</t>
-  </si>
-  <si>
-    <t>Calem Flanagan</t>
-  </si>
-  <si>
-    <t>Conor MacNamara</t>
-  </si>
-  <si>
-    <t>Jim Power</t>
-  </si>
-  <si>
-    <t>Bobby Flanagan</t>
-  </si>
-  <si>
-    <t>Tiernan Johnston</t>
-  </si>
-  <si>
-    <t>Dillon McLoughlin</t>
-  </si>
-  <si>
-    <t>Derek Kane</t>
-  </si>
-  <si>
-    <t>Tim Kavanagh</t>
-  </si>
-  <si>
-    <t>Brain Brown</t>
-  </si>
-  <si>
-    <t>Liam O'Doherty</t>
-  </si>
-  <si>
-    <t>William Robinson</t>
-  </si>
-  <si>
-    <t>Jamie O'Rourke</t>
-  </si>
-  <si>
-    <t>Myles Daly</t>
-  </si>
-  <si>
-    <t>Ralph O'Neill</t>
-  </si>
-  <si>
-    <t>Leroy Lynch</t>
-  </si>
-  <si>
-    <t>Paul MacMahon</t>
-  </si>
-  <si>
-    <t>Derek O'Donnell</t>
-  </si>
-  <si>
-    <t>Neil Stewart</t>
-  </si>
-  <si>
-    <t>Darragh MacDonald</t>
-  </si>
-  <si>
-    <t>Joe MacDermott</t>
-  </si>
-  <si>
-    <t>Cory Donovan</t>
-  </si>
-  <si>
-    <t>Niall Donnelly</t>
+    <t>Tommy McGrath</t>
+  </si>
+  <si>
+    <t>Harry Magee</t>
+  </si>
+  <si>
+    <t>Fionan Brennan</t>
+  </si>
+  <si>
+    <t>Pierre Sheehan</t>
+  </si>
+  <si>
+    <t>Davin Sweeney</t>
+  </si>
+  <si>
+    <t>Keenan Hayes</t>
+  </si>
+  <si>
+    <t>Tomas Maher</t>
+  </si>
+  <si>
+    <t>Deaglan Doyle</t>
+  </si>
+  <si>
+    <t>Darren O'Keeffe</t>
+  </si>
+  <si>
+    <t>Nicolas McCarthy</t>
+  </si>
+  <si>
+    <t>Dion Casey</t>
+  </si>
+  <si>
+    <t>Shaun Griffin</t>
+  </si>
+  <si>
+    <t>Benjamin Hayes</t>
+  </si>
+  <si>
+    <t>Auryn Martin</t>
+  </si>
+  <si>
+    <t>Daragh O'Sullivan</t>
+  </si>
+  <si>
+    <t>Ciaran Scott</t>
+  </si>
+  <si>
+    <t>Corey Barry</t>
+  </si>
+  <si>
+    <t>Andre MacNamara</t>
+  </si>
+  <si>
+    <t>Emmanuel White</t>
+  </si>
+  <si>
+    <t>Jacques Flynn</t>
+  </si>
+  <si>
+    <t>Omar Martin</t>
+  </si>
+  <si>
+    <t>Maxwell O'Connor</t>
+  </si>
+  <si>
+    <t>Martin Regan</t>
   </si>
 </sst>
 </file>
@@ -401,19 +386,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.63671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="42.23046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.26171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="44.26171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="44.26171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="49.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>351477.0</v>
+        <v>597449.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -503,7 +488,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>217431.0</v>
+        <v>845321.0</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -515,7 +500,7 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -527,16 +512,16 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -544,37 +529,37 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>281437.0</v>
+        <v>991631.0</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
@@ -582,43 +567,43 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>993365.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="n">
-        <v>544121.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -626,40 +611,40 @@
         <v>41</v>
       </c>
       <c r="B6" t="n">
-        <v>786829.0</v>
+        <v>831213.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -667,40 +652,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="n">
-        <v>726454.0</v>
+        <v>317888.0</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -708,7 +693,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="n">
-        <v>883225.0</v>
+        <v>266984.0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -717,39 +702,39 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>962675.0</v>
+        <v>679555.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -758,438 +743,438 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>425451.0</v>
+        <v>684979.0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" t="n">
-        <v>219163.0</v>
+        <v>956154.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>193528.0</v>
+        <v>968519.0</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" t="n">
-        <v>386575.0</v>
+        <v>791119.0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.0</v>
+        <v>446398.0</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="J14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B15" t="n">
-        <v>648181.0</v>
+        <v>857588.0</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" t="n">
-        <v>719936.0</v>
+        <v>739583.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" t="n">
-        <v>843243.0</v>
+        <v>867556.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n">
-        <v>565599.0</v>
+        <v>656741.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" t="n">
-        <v>329436.0</v>
+        <v>181212.0</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -1197,391 +1182,391 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" t="n">
-        <v>554216.0</v>
+        <v>642523.0</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" t="n">
-        <v>942294.0</v>
+        <v>264946.0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B22" t="n">
-        <v>931121.0</v>
+        <v>417575.0</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B23" t="n">
-        <v>941439.0</v>
+        <v>886255.0</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" t="n">
-        <v>945872.0</v>
+        <v>348668.0</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B25" t="n">
-        <v>523678.0</v>
+        <v>971753.0</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
-        <v>473591.0</v>
+        <v>293443.0</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" t="n">
-        <v>839183.0</v>
+        <v>461387.0</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B28" t="n">
-        <v>457658.0</v>
+        <v>521777.0</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
         <v>55</v>
       </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B29" t="n">
-        <v>288545.0</v>
+        <v>268984.0</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -1590,871 +1575,871 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B30" t="n">
-        <v>877844.0</v>
+        <v>198361.0</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B31" t="n">
-        <v>144281.0</v>
+        <v>727246.0</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" t="n">
-        <v>458214.0</v>
+        <v>614163.0</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B33" t="n">
-        <v>876685.0</v>
+        <v>661551.0</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B34" t="n">
-        <v>448884.0</v>
+        <v>399485.0</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B35" t="n">
-        <v>761584.0</v>
+        <v>682544.0</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B36" t="n">
-        <v>176641.0</v>
+        <v>915614.0</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="L36" t="s">
-        <v>43</v>
-      </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" t="n">
-        <v>871862.0</v>
+        <v>352541.0</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B38" t="n">
-        <v>123882.0</v>
+        <v>743471.0</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" t="n">
-        <v>936718.0</v>
+        <v>924464.0</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
       </c>
       <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>753279.0</v>
+        <v>155275.0</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" t="s">
         <v>27</v>
       </c>
-      <c r="I40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
       <c r="L40" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B41" t="n">
-        <v>432255.0</v>
+        <v>934324.0</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" t="s">
         <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" t="s">
-        <v>58</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B42" t="n">
-        <v>555695.0</v>
+        <v>538238.0</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L42" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
-        <v>851278.0</v>
+        <v>828388.0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" t="s">
-        <v>40</v>
-      </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
-        <v>331789.0</v>
+        <v>173946.0</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B45" t="n">
-        <v>717985.0</v>
+        <v>493397.0</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B46" t="n">
-        <v>132377.0</v>
+        <v>446936.0</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B47" t="n">
-        <v>432624.0</v>
+        <v>811426.0</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" t="n">
-        <v>346879.0</v>
+        <v>685112.0</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
         <v>43</v>
       </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B49" t="n">
-        <v>631947.0</v>
+        <v>782731.0</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
         <v>21</v>
-      </c>
-      <c r="I49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" t="s">
-        <v>44</v>
-      </c>
-      <c r="M49" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B50" t="n">
-        <v>823317.0</v>
+        <v>616317.0</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
@@ -2463,458 +2448,458 @@
         <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B51" t="n">
-        <v>455496.0</v>
+        <v>842757.0</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
         <v>28</v>
-      </c>
-      <c r="K51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B52" t="n">
-        <v>712562.0</v>
+        <v>415312.0</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M52" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B53" t="n">
-        <v>871956.0</v>
+        <v>955553.0</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
         <v>30</v>
       </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
-        <v>40</v>
-      </c>
       <c r="L53" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M53" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" t="n">
-        <v>513182.0</v>
+        <v>363665.0</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B55" t="n">
-        <v>884271.0</v>
+        <v>843526.0</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" t="s">
         <v>27</v>
       </c>
-      <c r="L55" t="s">
-        <v>32</v>
-      </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B56" t="n">
-        <v>311619.0</v>
+        <v>154946.0</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M56" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B57" t="n">
-        <v>675989.0</v>
+        <v>666716.0</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" t="s">
         <v>40</v>
       </c>
-      <c r="F57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>42</v>
-      </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M57" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58" t="n">
-        <v>617855.0</v>
+        <v>868385.0</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" t="s">
         <v>17</v>
       </c>
-      <c r="J58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" t="s">
-        <v>45</v>
-      </c>
-      <c r="L58" t="s">
-        <v>34</v>
-      </c>
       <c r="M58" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B59" t="n">
-        <v>427853.0</v>
+        <v>239414.0</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B60" t="n">
-        <v>959768.0</v>
+        <v>721845.0</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s">
         <v>44</v>
       </c>
-      <c r="H60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" t="s">
-        <v>49</v>
-      </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B61" t="n">
-        <v>648372.0</v>
+        <v>745718.0</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Students&Preferences(60).xlsx
+++ b/Students&Preferences(60).xlsx
@@ -6,18 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Student &amp; Preferences(60)" r:id="rId3" sheetId="1"/>
+    <sheet name="Classes.Student &amp; Preferences(6" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Student Number</t>
+    <t>Classes.Student Number</t>
   </si>
   <si>
     <t>Stream</t>
@@ -53,283 +53,304 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Conor Buckley</t>
+    <t>Harold O'Carroll</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>promoting democracy</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>eating exotic foods</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Abstract views on divorcing husbands</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>Abstract views on hunting aliens</t>
-  </si>
-  <si>
-    <t>Abstract views on studying mathematics</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Alexander Kelly</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>Abstract views on running a multinational corporation</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>divorcing husbands</t>
-  </si>
-  <si>
-    <t>Benedict Burns</t>
-  </si>
-  <si>
-    <t>pushing shoddy merchandise</t>
-  </si>
-  <si>
-    <t>Shane Kavanagh</t>
-  </si>
-  <si>
-    <t>Abstract views on performing household chores</t>
-  </si>
-  <si>
-    <t>Abstract views on eating exotic foods</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>telling bad jokes</t>
+    <t>promoting liberalism</t>
+  </si>
+  <si>
+    <t>writing political tracts</t>
+  </si>
+  <si>
+    <t>studying genetics</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burning with envy </t>
+  </si>
+  <si>
+    <t>writing polemics</t>
+  </si>
+  <si>
+    <t>Abstract views on composing classical music</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
   </si>
   <si>
     <t>Abstract views on interviewing celebrities</t>
   </si>
   <si>
-    <t>Jeffrey Thompson</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>eating the inedible,</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Lucas Duffy</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>Tiarnan Kane</t>
-  </si>
-  <si>
-    <t>Cian Healy</t>
-  </si>
-  <si>
-    <t>Patrick MacNamara</t>
-  </si>
-  <si>
-    <t>fighting against totalitarianism</t>
-  </si>
-  <si>
-    <t>Oscar Higgins</t>
-  </si>
-  <si>
-    <t>fussing about cleanliness</t>
-  </si>
-  <si>
-    <t>Terry Lyons</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Alex Gallagher</t>
-  </si>
-  <si>
-    <t>Cain Reid</t>
-  </si>
-  <si>
-    <t>Kevin Ward</t>
-  </si>
-  <si>
-    <t>Timmy Sweeney</t>
-  </si>
-  <si>
-    <t>Ned Hughes</t>
-  </si>
-  <si>
-    <t>Eric O'Doherty</t>
-  </si>
-  <si>
-    <t>Stuart O'Doherty</t>
-  </si>
-  <si>
-    <t>Nicholas Ryan</t>
-  </si>
-  <si>
-    <t>Elliot Quinn</t>
-  </si>
-  <si>
-    <t>Leonard Dunne</t>
-  </si>
-  <si>
-    <t>Garrett MacDonald</t>
-  </si>
-  <si>
-    <t>Francis Buckley</t>
-  </si>
-  <si>
-    <t>Cianan Graham</t>
-  </si>
-  <si>
-    <t>Tiarnan O'Reilly</t>
-  </si>
-  <si>
-    <t>Cianan McDonnell</t>
-  </si>
-  <si>
-    <t>Leigh Nolan</t>
-  </si>
-  <si>
-    <t>Padraig Buckley</t>
-  </si>
-  <si>
-    <t>Bryan Thompson</t>
-  </si>
-  <si>
-    <t>Laurence Flynn</t>
-  </si>
-  <si>
-    <t>Mark Kelly</t>
-  </si>
-  <si>
-    <t>Ted MacKenna</t>
-  </si>
-  <si>
-    <t>Tom Flanagan</t>
-  </si>
-  <si>
-    <t>Aiden Whelan</t>
-  </si>
-  <si>
-    <t>Albert Griffin</t>
-  </si>
-  <si>
-    <t>Imran Quinn</t>
-  </si>
-  <si>
-    <t>Troy MacDonald</t>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Erin Daly</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Abstract views on studying science</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Francis Doyle</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Abstract views on  driving under the influence</t>
+  </si>
+  <si>
+    <t>Corrie Collins</t>
+  </si>
+  <si>
+    <t>Rowan Magee</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Calem Buckley</t>
+  </si>
+  <si>
+    <t>Julius Magee</t>
+  </si>
+  <si>
+    <t>Lughaidh Walsh</t>
+  </si>
+  <si>
+    <t>Cain Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Stuart Burke</t>
+  </si>
+  <si>
+    <t>Rian Moore</t>
+  </si>
+  <si>
+    <t>Trevor Stewart</t>
+  </si>
+  <si>
+    <t>Abstract views on studying genetics</t>
+  </si>
+  <si>
+    <t>Albert O'Connor</t>
+  </si>
+  <si>
+    <t>Owen McDonnell</t>
+  </si>
+  <si>
+    <t>Harrison Kavanagh</t>
+  </si>
+  <si>
+    <t>Trevor O'Connell</t>
+  </si>
+  <si>
+    <t>Raphael Cullen</t>
+  </si>
+  <si>
+    <t>Caolan Wilson</t>
+  </si>
+  <si>
+    <t>Ted Keane</t>
+  </si>
+  <si>
+    <t>Mohammad Moore</t>
+  </si>
+  <si>
+    <t>Jesse Burns</t>
+  </si>
+  <si>
+    <t>Richard Boyle</t>
+  </si>
+  <si>
+    <t>Finnan Cullen</t>
+  </si>
+  <si>
+    <t>Eugene McDonnell</t>
+  </si>
+  <si>
+    <t>Mathew Collins</t>
+  </si>
+  <si>
+    <t>Hayden Moore</t>
+  </si>
+  <si>
+    <t>Clayton Martin</t>
+  </si>
+  <si>
+    <t>Davin Cullen</t>
+  </si>
+  <si>
+    <t>Dermot Reid</t>
+  </si>
+  <si>
+    <t>Oscar Nolan</t>
+  </si>
+  <si>
+    <t>Grant MacNamara</t>
+  </si>
+  <si>
+    <t>Jonathon Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Cathal Flanagan</t>
+  </si>
+  <si>
+    <t>Gerald Nolan</t>
+  </si>
+  <si>
+    <t>Tyler Cunningham</t>
+  </si>
+  <si>
+    <t>Aaran O'Farrell</t>
+  </si>
+  <si>
+    <t>Graeme O'Sullivan</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Tommy McGrath</t>
-  </si>
-  <si>
-    <t>Harry Magee</t>
-  </si>
-  <si>
-    <t>Fionan Brennan</t>
-  </si>
-  <si>
-    <t>Pierre Sheehan</t>
-  </si>
-  <si>
-    <t>Davin Sweeney</t>
-  </si>
-  <si>
-    <t>Keenan Hayes</t>
-  </si>
-  <si>
-    <t>Tomas Maher</t>
-  </si>
-  <si>
-    <t>Deaglan Doyle</t>
-  </si>
-  <si>
-    <t>Darren O'Keeffe</t>
-  </si>
-  <si>
-    <t>Nicolas McCarthy</t>
-  </si>
-  <si>
-    <t>Dion Casey</t>
-  </si>
-  <si>
-    <t>Shaun Griffin</t>
-  </si>
-  <si>
-    <t>Benjamin Hayes</t>
-  </si>
-  <si>
-    <t>Auryn Martin</t>
-  </si>
-  <si>
-    <t>Daragh O'Sullivan</t>
-  </si>
-  <si>
-    <t>Ciaran Scott</t>
-  </si>
-  <si>
-    <t>Corey Barry</t>
-  </si>
-  <si>
-    <t>Andre MacNamara</t>
-  </si>
-  <si>
-    <t>Emmanuel White</t>
-  </si>
-  <si>
-    <t>Jacques Flynn</t>
-  </si>
-  <si>
-    <t>Omar Martin</t>
-  </si>
-  <si>
-    <t>Maxwell O'Connor</t>
-  </si>
-  <si>
-    <t>Martin Regan</t>
+    <t>Abstract views on plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>avenging loved ones</t>
+  </si>
+  <si>
+    <t>surviving in a post-apocalyptic world</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>protecting criminals</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Derry Brennan</t>
+  </si>
+  <si>
+    <t>Abstract views on organizing armed robberies</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Samuel Murray</t>
+  </si>
+  <si>
+    <t>making condescending remarks</t>
+  </si>
+  <si>
+    <t>Zachary Duffy</t>
+  </si>
+  <si>
+    <t>promoting Scientology</t>
+  </si>
+  <si>
+    <t>bending the law</t>
+  </si>
+  <si>
+    <t>Joseph Duffy</t>
+  </si>
+  <si>
+    <t>chasing criminals</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Jacob O'Shea</t>
+  </si>
+  <si>
+    <t>Leigh MacKenna</t>
+  </si>
+  <si>
+    <t>Calum Keane</t>
+  </si>
+  <si>
+    <t>Mohammad Gallagher</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Derry Quinn</t>
+  </si>
+  <si>
+    <t>Brendan Griffin</t>
+  </si>
+  <si>
+    <t>Tadgh MacNamara</t>
+  </si>
+  <si>
+    <t>Lewis Whelan</t>
+  </si>
+  <si>
+    <t>Bailey Kane</t>
+  </si>
+  <si>
+    <t>Fergus Johnston</t>
+  </si>
+  <si>
+    <t>Abstract views on hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Darrell Collins</t>
+  </si>
+  <si>
+    <t>Wayne Clarke</t>
+  </si>
+  <si>
+    <t>Kenneth O'Doherty</t>
+  </si>
+  <si>
+    <t>Callan Clarke</t>
+  </si>
+  <si>
+    <t>Jason Kavanagh</t>
+  </si>
+  <si>
+    <t>Calum Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Louis Walsh</t>
+  </si>
+  <si>
+    <t>Shane Murray</t>
+  </si>
+  <si>
+    <t>Blake Campbell</t>
   </si>
 </sst>
 </file>
@@ -386,19 +407,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="42.078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="44.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,7 +468,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>597449.0</v>
+        <v>149976.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -488,81 +509,81 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>845321.0</v>
+        <v>362951.0</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="n">
+        <v>887499.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="n">
-        <v>991631.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -570,1114 +591,1114 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>993365.0</v>
+        <v>484151.0</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>831213.0</v>
+        <v>171393.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="n">
-        <v>317888.0</v>
+        <v>225739.0</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>266984.0</v>
+        <v>864188.0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>679555.0</v>
+        <v>794768.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>684979.0</v>
+        <v>683753.0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>956154.0</v>
+        <v>314474.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>968519.0</v>
+        <v>783568.0</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>791119.0</v>
+        <v>926272.0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n">
-        <v>446398.0</v>
+        <v>771299.0</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n">
-        <v>857588.0</v>
+        <v>589368.0</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
-        <v>739583.0</v>
+        <v>279661.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>867556.0</v>
+        <v>274823.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n">
-        <v>656741.0</v>
+        <v>443114.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n">
-        <v>181212.0</v>
+        <v>157432.0</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n">
-        <v>642523.0</v>
+        <v>596489.0</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
         <v>23</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
-        <v>264946.0</v>
+        <v>366261.0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>32</v>
       </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
         <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n">
-        <v>417575.0</v>
+        <v>282739.0</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n">
-        <v>886255.0</v>
+        <v>817517.0</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="s">
         <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n">
-        <v>348668.0</v>
+        <v>549443.0</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n">
-        <v>971753.0</v>
+        <v>924969.0</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n">
-        <v>293443.0</v>
+        <v>994545.0</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n">
-        <v>461387.0</v>
+        <v>712438.0</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>521777.0</v>
+        <v>185319.0</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
         <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n">
-        <v>268984.0</v>
+        <v>916417.0</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
-        <v>198361.0</v>
+        <v>124392.0</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n">
-        <v>727246.0</v>
+        <v>489226.0</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n">
-        <v>614163.0</v>
+        <v>683888.0</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1686,80 +1707,80 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
         <v>38</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
-        <v>661551.0</v>
+        <v>482691.0</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
-        <v>399485.0</v>
+        <v>965647.0</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1768,28 +1789,28 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
         <v>16</v>
@@ -1797,51 +1818,51 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n">
-        <v>682544.0</v>
+        <v>141316.0</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n">
-        <v>915614.0</v>
+        <v>843862.0</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1850,195 +1871,195 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n">
-        <v>352541.0</v>
+        <v>935532.0</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
         <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>743471.0</v>
+        <v>554873.0</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K38" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" t="n">
-        <v>924464.0</v>
+        <v>733689.0</v>
       </c>
       <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" t="s">
         <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="n">
+        <v>928968.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="n">
-        <v>155275.0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -2046,119 +2067,119 @@
         <v>85</v>
       </c>
       <c r="B41" t="n">
-        <v>934324.0</v>
+        <v>223797.0</v>
       </c>
       <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" t="n">
-        <v>538238.0</v>
+        <v>541489.0</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="n">
+        <v>473461.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="n">
-        <v>828388.0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
         <v>82</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M43" t="s">
         <v>24</v>
@@ -2166,740 +2187,740 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B44" t="n">
-        <v>173946.0</v>
+        <v>977579.0</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="L44" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>493397.0</v>
+        <v>946528.0</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="n">
+        <v>271573.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="n">
-        <v>446936.0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B47" t="n">
-        <v>811426.0</v>
+        <v>671737.0</v>
       </c>
       <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
         <v>82</v>
       </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
-        <v>21</v>
-      </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B48" t="n">
-        <v>685112.0</v>
+        <v>311537.0</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B49" t="n">
-        <v>782731.0</v>
+        <v>972122.0</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>616317.0</v>
+        <v>522735.0</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B51" t="n">
-        <v>842757.0</v>
+        <v>411799.0</v>
       </c>
       <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" t="s">
         <v>38</v>
-      </c>
-      <c r="H51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B52" t="n">
-        <v>415312.0</v>
+        <v>271762.0</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
         <v>38</v>
       </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B53" t="n">
-        <v>955553.0</v>
+        <v>862636.0</v>
       </c>
       <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
         <v>82</v>
       </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" t="s">
-        <v>30</v>
-      </c>
       <c r="L53" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M53" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B54" t="n">
-        <v>363665.0</v>
+        <v>177485.0</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B55" t="n">
-        <v>843526.0</v>
+        <v>495885.0</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M55" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B56" t="n">
-        <v>154946.0</v>
+        <v>266881.0</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B57" t="n">
-        <v>666716.0</v>
+        <v>246715.0</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B58" t="n">
-        <v>868385.0</v>
+        <v>821345.0</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B59" t="n">
-        <v>239414.0</v>
+        <v>912453.0</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s">
         <v>38</v>
       </c>
-      <c r="K59" t="s">
-        <v>34</v>
-      </c>
       <c r="L59" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B60" t="n">
-        <v>721845.0</v>
+        <v>566541.0</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M60" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B61" t="n">
-        <v>745718.0</v>
+        <v>227977.0</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Students&Preferences(60).xlsx
+++ b/Students&Preferences(60).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -53,304 +53,298 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Harold O'Carroll</t>
+    <t>Harold Magee</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>writing political tracts</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Dara Flanagan</t>
+  </si>
+  <si>
     <t>promoting liberalism</t>
   </si>
   <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>studying genetics</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burning with envy </t>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Abstract views on talking in riddles</t>
+  </si>
+  <si>
+    <t>Eugene Brennan</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Abstract views on writing pop songs</t>
+  </si>
+  <si>
+    <t>James Scott</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Abstract views on playing basketball</t>
+  </si>
+  <si>
+    <t>Clayton Kelly</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>launching cultural revolutions</t>
+  </si>
+  <si>
+    <t>Ricky Regan</t>
+  </si>
+  <si>
+    <t>Kristian Brown</t>
+  </si>
+  <si>
+    <t>Garreth Keane</t>
+  </si>
+  <si>
+    <t>Charlie Johnston</t>
+  </si>
+  <si>
+    <t>Conrad O'Keeffe</t>
+  </si>
+  <si>
+    <t>Reuben MacDonald</t>
+  </si>
+  <si>
+    <t>Padraic McLoughlin</t>
+  </si>
+  <si>
+    <t>Colum Molony</t>
+  </si>
+  <si>
+    <t>Fergal Flynn</t>
+  </si>
+  <si>
+    <t>Stephen Kenny</t>
+  </si>
+  <si>
+    <t>Griffin Moran</t>
+  </si>
+  <si>
+    <t>Omar Hayes</t>
+  </si>
+  <si>
+    <t>Timmy Lyons</t>
+  </si>
+  <si>
+    <t>Keelan Stewart</t>
+  </si>
+  <si>
+    <t>Self Specified Project</t>
+  </si>
+  <si>
+    <t>Kyle O'Donnell</t>
+  </si>
+  <si>
+    <t>Jonathon Hogan</t>
+  </si>
+  <si>
+    <t>Fiachra O'Callaghan</t>
+  </si>
+  <si>
+    <t>Dale Maher</t>
+  </si>
+  <si>
+    <t>Dane Johnston</t>
+  </si>
+  <si>
+    <t>Liam Maguire</t>
+  </si>
+  <si>
+    <t>Daryl O'Donnell</t>
+  </si>
+  <si>
+    <t>Emanuel Foley</t>
+  </si>
+  <si>
+    <t>Tiarnan O'Keeffe</t>
+  </si>
+  <si>
+    <t>Shay O'Neill</t>
+  </si>
+  <si>
+    <t>Corrie MacMahon</t>
+  </si>
+  <si>
+    <t>George Moore</t>
+  </si>
+  <si>
+    <t>Colman White</t>
+  </si>
+  <si>
+    <t>Jim MacKenna</t>
+  </si>
+  <si>
+    <t>Kieran Brown</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>Jacob Reid</t>
+  </si>
+  <si>
+    <t>Jessie Lyons</t>
+  </si>
+  <si>
+    <t>Donnchadh Collins</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>Abstract views on building rocket ships</t>
+  </si>
+  <si>
+    <t>tracking down terrorists</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Eoghan Donnelly</t>
+  </si>
+  <si>
+    <t>chasing terrorists</t>
+  </si>
+  <si>
+    <t>Abstract views on squandering money</t>
+  </si>
+  <si>
+    <t>preventing terrorism</t>
+  </si>
+  <si>
+    <t>Maurice Campbell</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>punishing terrorists</t>
+  </si>
+  <si>
+    <t>Emmanuel Brennan</t>
+  </si>
+  <si>
+    <t>Cillin MacNamara</t>
+  </si>
+  <si>
+    <t>Pauric O'Sullivan</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Mitchell Hogan</t>
   </si>
   <si>
     <t>writing polemics</t>
   </si>
   <si>
-    <t>Abstract views on composing classical music</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Abstract views on interviewing celebrities</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Erin Daly</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>jumping on couches</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Abstract views on studying science</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Francis Doyle</t>
-  </si>
-  <si>
-    <t>modeling DNA</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Abstract views on  driving under the influence</t>
-  </si>
-  <si>
-    <t>Corrie Collins</t>
-  </si>
-  <si>
-    <t>Rowan Magee</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>frying peanut-butter and banana sandwiches</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>Calem Buckley</t>
-  </si>
-  <si>
-    <t>Julius Magee</t>
-  </si>
-  <si>
-    <t>Lughaidh Walsh</t>
-  </si>
-  <si>
-    <t>Cain Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Stuart Burke</t>
-  </si>
-  <si>
-    <t>Rian Moore</t>
-  </si>
-  <si>
-    <t>Trevor Stewart</t>
-  </si>
-  <si>
-    <t>Abstract views on studying genetics</t>
-  </si>
-  <si>
-    <t>Albert O'Connor</t>
-  </si>
-  <si>
-    <t>Owen McDonnell</t>
-  </si>
-  <si>
-    <t>Harrison Kavanagh</t>
-  </si>
-  <si>
-    <t>Trevor O'Connell</t>
-  </si>
-  <si>
-    <t>Raphael Cullen</t>
-  </si>
-  <si>
-    <t>Caolan Wilson</t>
-  </si>
-  <si>
-    <t>Ted Keane</t>
-  </si>
-  <si>
-    <t>Mohammad Moore</t>
-  </si>
-  <si>
-    <t>Jesse Burns</t>
-  </si>
-  <si>
-    <t>Richard Boyle</t>
-  </si>
-  <si>
-    <t>Finnan Cullen</t>
-  </si>
-  <si>
-    <t>Eugene McDonnell</t>
-  </si>
-  <si>
-    <t>Mathew Collins</t>
-  </si>
-  <si>
-    <t>Hayden Moore</t>
-  </si>
-  <si>
-    <t>Clayton Martin</t>
-  </si>
-  <si>
-    <t>Davin Cullen</t>
-  </si>
-  <si>
-    <t>Dermot Reid</t>
-  </si>
-  <si>
-    <t>Oscar Nolan</t>
-  </si>
-  <si>
-    <t>Grant MacNamara</t>
-  </si>
-  <si>
-    <t>Jonathon Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Cathal Flanagan</t>
-  </si>
-  <si>
-    <t>Gerald Nolan</t>
-  </si>
-  <si>
-    <t>Tyler Cunningham</t>
-  </si>
-  <si>
-    <t>Aaran O'Farrell</t>
-  </si>
-  <si>
-    <t>Graeme O'Sullivan</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Abstract views on plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>protecting criminals</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Derry Brennan</t>
-  </si>
-  <si>
-    <t>Abstract views on organizing armed robberies</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>Samuel Murray</t>
-  </si>
-  <si>
-    <t>making condescending remarks</t>
-  </si>
-  <si>
-    <t>Zachary Duffy</t>
-  </si>
-  <si>
-    <t>promoting Scientology</t>
-  </si>
-  <si>
-    <t>bending the law</t>
-  </si>
-  <si>
-    <t>Joseph Duffy</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Jacob O'Shea</t>
-  </si>
-  <si>
-    <t>Leigh MacKenna</t>
-  </si>
-  <si>
-    <t>Calum Keane</t>
-  </si>
-  <si>
-    <t>Mohammad Gallagher</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Derry Quinn</t>
-  </si>
-  <si>
-    <t>Brendan Griffin</t>
-  </si>
-  <si>
-    <t>Tadgh MacNamara</t>
-  </si>
-  <si>
-    <t>Lewis Whelan</t>
-  </si>
-  <si>
-    <t>Bailey Kane</t>
-  </si>
-  <si>
-    <t>Fergus Johnston</t>
-  </si>
-  <si>
-    <t>Abstract views on hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>Darrell Collins</t>
-  </si>
-  <si>
-    <t>Wayne Clarke</t>
-  </si>
-  <si>
-    <t>Kenneth O'Doherty</t>
-  </si>
-  <si>
-    <t>Callan Clarke</t>
-  </si>
-  <si>
-    <t>Jason Kavanagh</t>
-  </si>
-  <si>
-    <t>Calum Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Louis Walsh</t>
-  </si>
-  <si>
-    <t>Shane Murray</t>
-  </si>
-  <si>
-    <t>Blake Campbell</t>
+    <t>Derry Scott</t>
+  </si>
+  <si>
+    <t>Darryl Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Reece Hogan</t>
+  </si>
+  <si>
+    <t>Ferdia Wilson</t>
+  </si>
+  <si>
+    <t>Cailim Lyons</t>
+  </si>
+  <si>
+    <t>Graeme Foley</t>
+  </si>
+  <si>
+    <t>Kristian MacKenna</t>
+  </si>
+  <si>
+    <t>Micheal Magee</t>
+  </si>
+  <si>
+    <t>Cairan Power</t>
+  </si>
+  <si>
+    <t>Corrie O'Reilly</t>
+  </si>
+  <si>
+    <t>Jeremy Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Fionnan Griffin</t>
+  </si>
+  <si>
+    <t>Lucas Gallagher</t>
+  </si>
+  <si>
+    <t>Eamonn Clarke</t>
+  </si>
+  <si>
+    <t>Kilian Reid</t>
+  </si>
+  <si>
+    <t>Billy Barry</t>
+  </si>
+  <si>
+    <t>Cairan Scott</t>
   </si>
 </sst>
 </file>
@@ -407,19 +401,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="41.171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="42.078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.078125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="44.046875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="44.046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="35.78125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="44.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,7 +462,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>149976.0</v>
+        <v>119242.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -509,122 +503,122 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>362951.0</v>
+        <v>913333.0</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>658799.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="n">
-        <v>887499.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="n">
+        <v>617853.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="n">
-        <v>484151.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -632,113 +626,113 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>171393.0</v>
+        <v>386963.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n">
-        <v>225739.0</v>
+        <v>154232.0</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>864188.0</v>
+        <v>118163.0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -747,45 +741,45 @@
         <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="n">
-        <v>794768.0</v>
+        <v>166124.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -793,40 +787,40 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
-        <v>683753.0</v>
+        <v>414769.0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
@@ -834,1027 +828,1027 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
-        <v>314474.0</v>
+        <v>999586.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="n">
-        <v>783568.0</v>
+        <v>297811.0</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
         <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="n">
-        <v>926272.0</v>
+        <v>799767.0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="n">
-        <v>771299.0</v>
+        <v>349738.0</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="n">
-        <v>589368.0</v>
+        <v>496329.0</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="n">
-        <v>279661.0</v>
+        <v>835241.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="J16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>274823.0</v>
+        <v>685773.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
         <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>443114.0</v>
+        <v>171972.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
         <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>157432.0</v>
+        <v>421587.0</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
         <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" t="n">
-        <v>596489.0</v>
+        <v>415828.0</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
         <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>366261.0</v>
+        <v>945772.0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" t="s">
-        <v>39</v>
-      </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>282739.0</v>
+        <v>457269.0</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
         <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>817517.0</v>
+        <v>897379.0</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>549443.0</v>
+        <v>978995.0</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
       <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
       <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>924969.0</v>
+        <v>882149.0</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
         <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>994545.0</v>
+        <v>253571.0</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>712438.0</v>
+        <v>276645.0</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
         <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>185319.0</v>
+        <v>187482.0</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>916417.0</v>
+        <v>874768.0</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>124392.0</v>
+        <v>183879.0</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>489226.0</v>
+        <v>914795.0</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
         <v>24</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s">
-        <v>47</v>
-      </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>683888.0</v>
+        <v>149612.0</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>482691.0</v>
+        <v>935788.0</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
         <v>34</v>
       </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>28</v>
-      </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>965647.0</v>
+        <v>788344.0</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="M34" t="s">
         <v>38</v>
-      </c>
-      <c r="J34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="n">
+        <v>328122.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="n">
-        <v>141316.0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
         <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1862,40 +1856,40 @@
         <v>70</v>
       </c>
       <c r="B36" t="n">
-        <v>843862.0</v>
+        <v>411364.0</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1903,40 +1897,40 @@
         <v>71</v>
       </c>
       <c r="B37" t="n">
-        <v>935532.0</v>
+        <v>449949.0</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
         <v>24</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" t="s">
-        <v>30</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1944,16 +1938,16 @@
         <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>554873.0</v>
+        <v>548266.0</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -1962,22 +1956,22 @@
         <v>76</v>
       </c>
       <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
         <v>77</v>
-      </c>
-      <c r="I38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" t="s">
-        <v>28</v>
       </c>
       <c r="K38" t="s">
         <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -1985,122 +1979,122 @@
         <v>80</v>
       </c>
       <c r="B39" t="n">
-        <v>733689.0</v>
+        <v>596113.0</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" t="s">
         <v>78</v>
       </c>
-      <c r="H39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>928968.0</v>
+        <v>477278.0</v>
       </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="s">
         <v>82</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" t="n">
-        <v>223797.0</v>
+        <v>832113.0</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M41" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -2108,122 +2102,122 @@
         <v>88</v>
       </c>
       <c r="B42" t="n">
-        <v>541489.0</v>
+        <v>217153.0</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
         <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
         <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="L42" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="M42" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" t="n">
-        <v>473461.0</v>
+        <v>947775.0</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
         <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" t="s">
         <v>74</v>
-      </c>
-      <c r="K43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n">
-        <v>977579.0</v>
+        <v>413454.0</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" t="s">
         <v>78</v>
-      </c>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s">
-        <v>75</v>
-      </c>
-      <c r="K44" t="s">
-        <v>77</v>
-      </c>
-      <c r="L44" t="s">
-        <v>87</v>
-      </c>
-      <c r="M44" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2231,40 +2225,40 @@
         <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>946528.0</v>
+        <v>376337.0</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" t="s">
         <v>77</v>
       </c>
-      <c r="F45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>75</v>
       </c>
-      <c r="I45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" t="s">
-        <v>74</v>
-      </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -2272,655 +2266,655 @@
         <v>95</v>
       </c>
       <c r="B46" t="n">
-        <v>271573.0</v>
+        <v>638336.0</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
       </c>
       <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
         <v>81</v>
       </c>
-      <c r="J46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="n">
-        <v>671737.0</v>
+        <v>758584.0</v>
       </c>
       <c r="C47" t="s">
         <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s">
         <v>77</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
-        <v>311537.0</v>
+        <v>244747.0</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
       </c>
       <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s">
         <v>79</v>
       </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
-        <v>972122.0</v>
+        <v>714642.0</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
       </c>
       <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
         <v>78</v>
       </c>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" t="s">
         <v>79</v>
       </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>81</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="n">
-        <v>522735.0</v>
+        <v>123448.0</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s">
         <v>77</v>
       </c>
-      <c r="H50" t="s">
+      <c r="L50" t="s">
         <v>81</v>
       </c>
-      <c r="I50" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>75</v>
-      </c>
-      <c r="K50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>79</v>
-      </c>
-      <c r="M50" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>411799.0</v>
+        <v>812275.0</v>
       </c>
       <c r="C51" t="s">
         <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
         <v>78</v>
       </c>
-      <c r="F51" t="s">
+      <c r="K51" t="s">
         <v>77</v>
       </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>82</v>
       </c>
-      <c r="L51" t="s">
-        <v>17</v>
-      </c>
       <c r="M51" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="n">
-        <v>271762.0</v>
+        <v>163741.0</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
         <v>79</v>
       </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
       <c r="J52" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" t="n">
-        <v>862636.0</v>
+        <v>384765.0</v>
       </c>
       <c r="C53" t="s">
         <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
         <v>77</v>
       </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" t="n">
-        <v>177485.0</v>
+        <v>515674.0</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s">
         <v>76</v>
       </c>
-      <c r="F54" t="s">
-        <v>79</v>
-      </c>
       <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
         <v>78</v>
       </c>
-      <c r="H54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s">
-        <v>87</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" t="s">
-        <v>28</v>
-      </c>
       <c r="M54" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" t="n">
-        <v>495885.0</v>
+        <v>969918.0</v>
       </c>
       <c r="C55" t="s">
         <v>73</v>
       </c>
       <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s">
         <v>77</v>
       </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s">
-        <v>84</v>
-      </c>
       <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" t="s">
         <v>74</v>
       </c>
-      <c r="J55" t="s">
-        <v>89</v>
-      </c>
-      <c r="K55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L55" t="s">
-        <v>78</v>
-      </c>
       <c r="M55" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" t="n">
-        <v>266881.0</v>
+        <v>667438.0</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L56" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="n">
-        <v>246715.0</v>
+        <v>461296.0</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M57" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" t="n">
-        <v>821345.0</v>
+        <v>329994.0</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s">
         <v>77</v>
       </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="L58" t="s">
         <v>75</v>
       </c>
-      <c r="I58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" t="s">
-        <v>19</v>
-      </c>
       <c r="M58" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="n">
-        <v>912453.0</v>
+        <v>419876.0</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
         <v>75</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M59" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>566541.0</v>
+        <v>955281.0</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
         <v>75</v>
       </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="L60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" t="n">
-        <v>227977.0</v>
+        <v>989793.0</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" t="s">
         <v>75</v>
       </c>
-      <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>78</v>
-      </c>
-      <c r="J61" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" t="s">
-        <v>89</v>
-      </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M61" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
